--- a/public/template/template_impor_program.xlsx
+++ b/public/template/template_impor_program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristoforus Fasco .D\Documents\Document\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\emonev\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ECC49E-87B6-42C4-8546-DC80C77F6CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D3B52-1E0E-4A30-8422-9C18B7EFE2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E41BE156-D777-4E4A-B615-CD7BF85DCC1E}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Kode Urusan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Kode</t>
   </si>
@@ -46,10 +43,10 @@
     <t>Program</t>
   </si>
   <si>
-    <t>Pagu</t>
+    <t>No</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Tahun Perubahan</t>
   </si>
 </sst>
 </file>
@@ -401,15 +398,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C268903-4D94-480B-A79D-396866D2BD2E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -418,9 +420,6 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/public/template/template_impor_program.xlsx
+++ b/public/template/template_impor_program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\emonev\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D3B52-1E0E-4A30-8422-9C18B7EFE2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43172548-AAB0-454F-9A41-389183A3AB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E41BE156-D777-4E4A-B615-CD7BF85DCC1E}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Kode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Program</t>
   </si>
@@ -47,6 +44,12 @@
   </si>
   <si>
     <t>Tahun Perubahan</t>
+  </si>
+  <si>
+    <t>Kode Urusan</t>
+  </si>
+  <si>
+    <t>Kode Program</t>
   </si>
 </sst>
 </file>
@@ -398,29 +401,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C268903-4D94-480B-A79D-396866D2BD2E}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
